--- a/LplcSimulator/LplcSimulator/mapdatas/扇形ver/map_tp壁内側.xlsx
+++ b/LplcSimulator/LplcSimulator/mapdatas/扇形ver/map_tp壁内側.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\崚\source\repos\LplcSimulator\LplcSimulator\LplcSimulator\mapdatas\扇形ver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamura\source\repos\LplcSimulator\LplcSimulator\LplcSimulator\mapdatas\扇形ver\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -727,16 +727,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>39397</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>48923</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>140277</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -760,7 +760,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="5400000">
-          <a:off x="14945589" y="10187853"/>
+          <a:off x="9576953" y="9096808"/>
           <a:ext cx="2928505" cy="4131253"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1048,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GW58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BT1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="EY17" sqref="EY17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BX51" sqref="BX51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2998,18 +2998,10 @@
       <c r="AI10" s="29">
         <v>1</v>
       </c>
-      <c r="AJ10" s="32">
-        <v>1</v>
-      </c>
-      <c r="AK10" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL10" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="33">
-        <v>1</v>
-      </c>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="33"/>
       <c r="AN10" s="31">
         <v>1</v>
       </c>

--- a/LplcSimulator/LplcSimulator/mapdatas/扇形ver/map_tp壁内側.xlsx
+++ b/LplcSimulator/LplcSimulator/mapdatas/扇形ver/map_tp壁内側.xlsx
@@ -1048,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GW58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BX51" sqref="BX51"/>
+    <sheetView tabSelected="1" topLeftCell="BT1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="EB17" sqref="EB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6211,8 +6211,12 @@
       <c r="DY17" s="27">
         <v>1</v>
       </c>
-      <c r="DZ17" s="45"/>
-      <c r="EA17" s="47"/>
+      <c r="DZ17" s="45">
+        <v>1</v>
+      </c>
+      <c r="EA17" s="47">
+        <v>1</v>
+      </c>
       <c r="EB17" s="8">
         <v>1</v>
       </c>
